--- a/开发相关/Python/Basic/Pandas/多部电影数据-类型统计.xlsx
+++ b/开发相关/Python/Basic/Pandas/多部电影数据-类型统计.xlsx
@@ -19,76 +19,76 @@
     <t>tj</t>
   </si>
   <si>
+    <t>惊悚</t>
+  </si>
+  <si>
+    <t>奇幻</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>同性</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>犯罪</t>
+  </si>
+  <si>
+    <t>歌舞</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>科幻</t>
+  </si>
+  <si>
     <t>喜剧</t>
   </si>
   <si>
-    <t>惊悚</t>
+    <t>传记</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>爱情</t>
+  </si>
+  <si>
+    <t>悬疑</t>
+  </si>
+  <si>
+    <t>恐怖</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>古装</t>
+  </si>
+  <si>
+    <t>剧情</t>
   </si>
   <si>
     <t>西部</t>
   </si>
   <si>
-    <t>奇幻</t>
-  </si>
-  <si>
-    <t>爱情</t>
+    <t>儿童</t>
+  </si>
+  <si>
+    <t>灾难</t>
   </si>
   <si>
     <t>动画</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>灾难</t>
-  </si>
-  <si>
-    <t>运动</t>
-  </si>
-  <si>
-    <t>恐怖</t>
-  </si>
-  <si>
-    <t>古装</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>儿童</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>歌舞</t>
-  </si>
-  <si>
-    <t>剧情</t>
-  </si>
-  <si>
-    <t>传记</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>同性</t>
-  </si>
-  <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>犯罪</t>
-  </si>
-  <si>
-    <t>家庭</t>
-  </si>
-  <si>
-    <t>悬疑</t>
-  </si>
-  <si>
-    <t>科幻</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -590,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -606,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -614,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -630,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -638,7 +638,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
